--- a/group-reports/tables/shahriar-3-1-results-after-queue-test-1.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-after-queue-test-1.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>5235 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>2794.35</t>
+          <t>2794.35 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>5231</t>
+          <t>5231 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>2794.41</t>
+          <t>2794.41 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>5120</t>
+          <t>5120 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>2794.40</t>
+          <t>2794.40 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>5183</t>
+          <t>5183 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>2794.48</t>
+          <t>2794.48 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>5208</t>
+          <t>5208 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>2794.35</t>
+          <t>2794.35 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>5092</t>
+          <t>5092 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>2794.34</t>
+          <t>2794.34 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5248</t>
+          <t>5248 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2794.31</t>
+          <t>2794.31 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>5268</t>
+          <t>5268 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>2794.45</t>
+          <t>2794.45 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>5201 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2794.36</t>
+          <t>2794.36 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>5235 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2794.30</t>
+          <t>2794.30 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>5214</t>
+          <t>5214 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2794.31</t>
+          <t>2794.31 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>5232 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2794.28</t>
+          <t>2794.28 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5236 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>2794.30</t>
+          <t>2794.30 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>5212</t>
+          <t>5212 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>2794.32</t>
+          <t>2794.32 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>5255 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2794.38</t>
+          <t>2794.38 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>5198</t>
+          <t>5198 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2794.26</t>
+          <t>2794.26 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>204 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>5254</t>
+          <t>5254 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2794.35</t>
+          <t>2794.35 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>5228</t>
+          <t>5228 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2794.32</t>
+          <t>2794.32 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>5314 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>2794.65</t>
+          <t>2794.65 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>5215 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2794.28</t>
+          <t>2794.28 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5245 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2794.32</t>
+          <t>2794.32 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
